--- a/Acessos GDM.xlsx
+++ b/Acessos GDM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docolms-my.sharepoint.com/personal/fernando_habeck_docol_com_br/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docolms-my.sharepoint.com/personal/fernando_habeck_docol_com_br/Documents/Área de Trabalho/Projetos/JAVA SCRIPT/GDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC104810495967E05ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC8BAC1-B29F-43D3-836C-5FD17BC79E08}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC104810495967E05ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8B1BC1-AC87-4658-B346-BD4362860264}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25720" yWindow="-1680" windowWidth="17300" windowHeight="8890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,19 +546,19 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.88671875" style="3" customWidth="1"/>
-    <col min="4" max="19" width="4.77734375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="6.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="3" customWidth="1"/>
+    <col min="4" max="19" width="4.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D1" s="3">
         <v>0</v>
       </c>
@@ -725,8 +725,8 @@
         <v>0</v>
       </c>
       <c r="T3" s="10" t="str">
-        <f>D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
-        <v>111102000000000</v>
+        <f>D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3</f>
+        <v>1111020000000000</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -738,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -786,8 +786,8 @@
         <v>0</v>
       </c>
       <c r="T4" s="10" t="str">
-        <f t="shared" ref="T4:T9" si="0">D4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4</f>
-        <v>000000000000000</v>
+        <f>D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4</f>
+        <v>1100020000000000</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -847,8 +847,8 @@
         <v>0</v>
       </c>
       <c r="T5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>000000000000000</v>
+        <f t="shared" ref="T5:T9" si="0">D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5</f>
+        <v>0000000000000000</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000</v>
+        <v>0000000000000000</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
       </c>
       <c r="T7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000</v>
+        <v>0000000000000000</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="T8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000</v>
+        <v>0000000000000000</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="T9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>000000000000000</v>
+        <v>0000000000000000</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1272,7 +1272,7 @@
       <c r="T17" s="11"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
